--- a/マップ情報3.xlsx
+++ b/マップ情報3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oomori/Desktop/一時保管2023:09:04/toio関連/toioDO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oomori/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF31B8B-B9BD-EB45-AB0D-DEAB98B0C420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9C29E4-15C2-774B-B9D9-372B0AA7F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="7740" windowWidth="28300" windowHeight="17440" xr2:uid="{CD8A19D8-9ECC-B84A-91D3-EFC740A7DA49}"/>
+    <workbookView xWindow="16560" yWindow="500" windowWidth="32980" windowHeight="22300" xr2:uid="{CD8A19D8-9ECC-B84A-91D3-EFC740A7DA49}"/>
   </bookViews>
   <sheets>
     <sheet name="マップ設定" sheetId="1" r:id="rId1"/>
-    <sheet name="マップ情報2" sheetId="3" r:id="rId2"/>
+    <sheet name="マップ情報3" sheetId="3" r:id="rId2"/>
     <sheet name="アイテム" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>ブロック</t>
   </si>
@@ -87,6 +87,9 @@
       <t xml:space="preserve">ソト </t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お宝</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -676,19 +679,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
+      <c r="G4" s="3">
+        <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>2</v>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>0</v>
@@ -752,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>0</v>
@@ -851,7 +854,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB18E304-B9B3-BF4F-8727-66EF3AEF5867}">
           <x14:formula1>
-            <xm:f>アイテム!$A$1:$A$5</xm:f>
+            <xm:f>アイテム!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:I7</xm:sqref>
         </x14:dataValidation>
@@ -865,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE248C5-7390-AD42-8B84-AC2C427EF6AB}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +987,7 @@
       </c>
       <c r="B12" s="7" t="str">
         <f>マップ設定!G6</f>
-        <v>空</v>
+        <v>お宝</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="B16" s="7" t="str">
         <f>マップ設定!D5</f>
-        <v>空</v>
+        <v>お宝</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1087,18 +1090,18 @@
       <c r="A23" s="7">
         <v>31</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="7">
         <f>マップ設定!D4</f>
-        <v>空</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7">
         <v>32</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="7">
         <f>マップ設定!E4</f>
-        <v>空</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1114,9 +1117,9 @@
       <c r="A26" s="7">
         <v>34</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="7">
         <f>マップ設定!G4</f>
-        <v>空</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1208,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7FC161-1FD3-C243-B95E-D62B6ABB4A00}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1241,6 +1244,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/マップ情報3.xlsx
+++ b/マップ情報3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oomori/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9C29E4-15C2-774B-B9D9-372B0AA7F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8785C6D6-7B6A-5F49-BA43-8911F430B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="500" windowWidth="32980" windowHeight="22300" xr2:uid="{CD8A19D8-9ECC-B84A-91D3-EFC740A7DA49}"/>
+    <workbookView xWindow="19260" yWindow="1160" windowWidth="32980" windowHeight="22300" xr2:uid="{CD8A19D8-9ECC-B84A-91D3-EFC740A7DA49}"/>
   </bookViews>
   <sheets>
     <sheet name="マップ設定" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
   <si>
     <t>ブロック</t>
   </si>
@@ -567,7 +567,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -722,8 +722,8 @@
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
+      <c r="G5" s="3">
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
@@ -1054,9 +1054,9 @@
       <c r="A19" s="7">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="7">
         <f>マップ設定!G5</f>
-        <v>空</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1211,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7FC161-1FD3-C243-B95E-D62B6ABB4A00}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1299,6 +1299,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
